--- a/2_Part2_Implementation/2.2_Control_Logs/2.2.4_VersionControl/DocVersionControl.xlsx
+++ b/2_Part2_Implementation/2.2_Control_Logs/2.2.4_VersionControl/DocVersionControl.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="14520"/>
+    <workbookView xWindow="9240" yWindow="5100" windowWidth="27960" windowHeight="15400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
+  <si>
+    <t>Removed Directory, moved file to 2.2.4_VersionControl, renamed file to DocVersionControl</t>
+  </si>
+  <si>
+    <t>Rename: VersionControl.xlsx -&gt; SWVersionControl.xlsx</t>
+  </si>
+  <si>
+    <t>Amended changes discussed in email correspondence (Index I12)</t>
+  </si>
+  <si>
+    <t>2.2.1_ChangeControl(Removed)</t>
+  </si>
+  <si>
+    <t>V12</t>
+  </si>
+  <si>
+    <t>I13</t>
+  </si>
+  <si>
+    <t>Added project folder to 2.1.1_Current</t>
+  </si>
+  <si>
+    <t>V13</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Russell</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moved folder to 2.1.1_Old</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I17</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2_RequirementsTracing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Russell</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created document</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>James Nightingale</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added project folder to 2.1.1_Current</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ammended code to meet quality specifications</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Russell, James Nightingale</t>
+  </si>
+  <si>
+    <t>Updated main functions and menu driver</t>
+  </si>
+  <si>
+    <t>User to make changes</t>
+  </si>
+  <si>
+    <t>Added document to repository</t>
+  </si>
+  <si>
+    <t>Added further functionality</t>
+  </si>
+  <si>
+    <t>V15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I16</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scott Dennison</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>New document for software version logs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
   <si>
     <t>2.1.1_Current</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -198,78 +314,6 @@
   </si>
   <si>
     <t>Removed Directory 2.2.1_ChangeControl, Moved and renamed document ChangeControl.xlsx -&gt; DocVersionControl.xlsx to 2.2.4_Version Control. Renamed document VersionControl.xlsx -&gt; SWVersionControl.xls</t>
-  </si>
-  <si>
-    <t>Removed Directory, moved file to 2.2.4_VersionControl, renamed file to DocVersionControl</t>
-  </si>
-  <si>
-    <t>Rename: VersionControl.xlsx -&gt; SWVersionControl.xlsx</t>
-  </si>
-  <si>
-    <t>Amended changes discussed in email correspondence (Index I12)</t>
-  </si>
-  <si>
-    <t>2.2.1_ChangeControl(Removed)</t>
-  </si>
-  <si>
-    <t>V12</t>
-  </si>
-  <si>
-    <t>I13</t>
-  </si>
-  <si>
-    <t>Added project folder to 2.1.1_Current</t>
-  </si>
-  <si>
-    <t>V13</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>V14</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I14</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I15</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>David Russell</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moved folder to 2.1.1_Old</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>James Nightingale</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Added project folder to 2.1.1_Current</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ammended code to meet quality specifications</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>David Russell, James Nightingale</t>
-  </si>
-  <si>
-    <t>Updated main functions and menu driver</t>
-  </si>
-  <si>
-    <t>User to make changes</t>
-  </si>
-  <si>
-    <t>Added document to repository</t>
-  </si>
-  <si>
-    <t>Added further functionality</t>
   </si>
 </sst>
 </file>
@@ -277,9 +321,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +396,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -558,7 +608,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -674,91 +724,116 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1055,74 +1130,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+    <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D3" s="33">
         <v>40620</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="50">
+        <v>71</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="49">
         <v>1.01</v>
       </c>
     </row>
@@ -1134,19 +1209,19 @@
         <v>40622</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="51">
+        <v>72</v>
+      </c>
+      <c r="G4" s="50">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="51">
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45">
+    <row r="5" spans="1:9" ht="42">
       <c r="A5" s="13"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
@@ -1154,19 +1229,19 @@
         <v>40622</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="51">
+        <v>86</v>
+      </c>
+      <c r="G5" s="50">
         <v>1.2</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="51">
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30">
+    <row r="6" spans="1:9">
       <c r="A6" s="13"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
@@ -1174,66 +1249,66 @@
         <v>40625</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="51">
+        <v>43</v>
+      </c>
+      <c r="G6" s="50">
         <v>1.3</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="51">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1">
+    <row r="7" spans="1:9" ht="15" thickBot="1">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="35"/>
       <c r="E7" s="44"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1">
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="27"/>
       <c r="D8" s="36"/>
       <c r="E8" s="23"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D9" s="33">
         <v>40620</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="56">
+        <v>51</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="55">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:9" ht="28">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -1241,15 +1316,15 @@
         <v>40620</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="51">
+        <v>53</v>
+      </c>
+      <c r="G10" s="50">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="56">
         <v>1.2</v>
       </c>
     </row>
@@ -1261,914 +1336,944 @@
         <v>40620</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="51">
+        <v>66</v>
+      </c>
+      <c r="G11" s="50">
         <v>1.2</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="56">
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1">
+    <row r="12" spans="1:9" ht="15" thickBot="1">
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="20"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="58"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1">
+      <c r="G12" s="52"/>
+      <c r="H12" s="57"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="26"/>
       <c r="D13" s="36"/>
       <c r="E13" s="25"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="59"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="58"/>
       <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="33">
+        <v>55</v>
+      </c>
+      <c r="D14" s="75">
         <v>40622</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="76">
+        <v>1</v>
+      </c>
+      <c r="H14" s="77">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="64">
+        <v>40625</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="57"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="49">
+      <c r="C18" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="33">
+        <v>40622</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="81">
         <v>1</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H18" s="83">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="58"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="21" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="13"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="34">
+        <v>40622</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="80"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="84"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="57"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="58"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="33">
-        <v>40622</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="72">
+      <c r="D22" s="33">
+        <v>40620</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="55">
         <v>1</v>
       </c>
-      <c r="H17" s="73">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="13"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="34">
-        <v>40622</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="74"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="58"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="59"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="12" t="s">
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="57"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="58"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="33">
+        <v>40620</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="33">
-        <v>40620</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="56">
+      <c r="G25" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="58"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="59"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="33">
-        <v>40620</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="58"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="59"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+    <row r="26" spans="1:9" ht="15" thickBot="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="57"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
       <c r="D27" s="36"/>
       <c r="E27" s="23"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="59"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="33">
+      <c r="G27" s="54"/>
+      <c r="H27" s="58"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="58"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="33">
         <v>40620</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="56">
+      <c r="E29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="58"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="59"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+    <row r="30" spans="1:9" ht="15" thickBot="1">
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="57"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
       <c r="D31" s="36"/>
       <c r="E31" s="23"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="59"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="33">
+      <c r="G31" s="54"/>
+      <c r="H31" s="58"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="58"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="33">
         <v>40620</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="56">
+      <c r="E33" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="68"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="58"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="59"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="33">
+    <row r="34" spans="1:8">
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="67"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1">
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="57"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="58"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="33">
         <v>40620</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="56">
+      <c r="E37" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="68"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="58"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="59"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:8">
+      <c r="A38" s="61"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="67"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1">
+      <c r="A39" s="14"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="57"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="24"/>
       <c r="D40" s="36"/>
       <c r="E40" s="23"/>
       <c r="F40" s="26"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="59"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="33">
+      <c r="G40" s="54"/>
+      <c r="H40" s="58"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="58"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="33">
         <v>40620</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="56">
+      <c r="E42" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="58"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="59"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+    <row r="43" spans="1:8" ht="15" thickBot="1">
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="57"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="24"/>
       <c r="D44" s="36"/>
       <c r="E44" s="23"/>
       <c r="F44" s="26"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="59"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="9" t="s">
+      <c r="G44" s="54"/>
+      <c r="H44" s="58"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="58"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="33">
+        <v>40620</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="F46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="61"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="67"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1">
+      <c r="A48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="57"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="58"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="33">
+        <v>40622</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="48">
+        <v>1</v>
+      </c>
+      <c r="H50" s="55">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" thickBot="1">
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="57"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" thickBot="1">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="58"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="D53" s="33">
+        <v>40623</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="13"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="33">
-        <v>40620</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="D54" s="34">
+        <v>40625</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="50">
+        <v>1</v>
+      </c>
+      <c r="H54" s="56">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" thickBot="1">
+      <c r="A55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="57"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" thickBot="1">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="27"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="33">
+        <v>40624</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="56">
+      <c r="G57" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" s="55">
         <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="62"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="68"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A47" s="14"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="58"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="59"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="33">
-        <v>40622</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="49">
-        <v>1</v>
-      </c>
-      <c r="H49" s="56">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="58"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="59"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="33">
-        <v>40623</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="13"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="34">
-        <v>40625</v>
-      </c>
-      <c r="E53" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" s="51">
-        <v>1</v>
-      </c>
-      <c r="H53" s="57">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A54" s="14"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="58"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="27"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="33">
-        <v>40624</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="13"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="34">
-        <v>40625</v>
-      </c>
-      <c r="E57" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G57" s="51">
-        <v>1</v>
-      </c>
-      <c r="H57" s="57">
-        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="13"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="75" t="s">
-        <v>1</v>
+      <c r="C58" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="D58" s="34">
         <v>40625</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="51">
+        <v>21</v>
+      </c>
+      <c r="G58" s="50">
+        <v>1</v>
+      </c>
+      <c r="H58" s="56">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H58" s="57">
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="34">
+        <v>40625</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H59" s="56">
         <v>1.2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="58"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="59"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="33">
+    <row r="60" spans="1:8" ht="15" thickBot="1">
+      <c r="A60" s="14"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="57"/>
+    </row>
+    <row r="61" spans="1:8" ht="15" thickBot="1">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="58"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="33">
         <v>40625</v>
       </c>
-      <c r="E61" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" s="49" t="s">
+      <c r="E62" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H61" s="56">
+      <c r="G62" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="13"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="34">
-        <v>40625</v>
-      </c>
-      <c r="E62" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="51">
-        <v>1</v>
-      </c>
-      <c r="H62" s="57">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="46"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
       <c r="D63" s="34">
         <v>40625</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="51">
+        <v>38</v>
+      </c>
+      <c r="G63" s="50">
+        <v>1</v>
+      </c>
+      <c r="H63" s="56">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H63" s="57">
-        <v>1.2</v>
-      </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="46"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="34">
         <v>40625</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" s="51">
+        <v>41</v>
+      </c>
+      <c r="G64" s="50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H64" s="56">
         <v>1.2</v>
       </c>
-      <c r="H64" s="57">
-        <v>1.3</v>
-      </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="46"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
       <c r="D65" s="34">
-        <v>40626</v>
+        <v>40625</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" s="51">
+        <v>26</v>
+      </c>
+      <c r="G65" s="50">
+        <v>1.2</v>
+      </c>
+      <c r="H65" s="56">
         <v>1.3</v>
       </c>
-      <c r="H65" s="57">
-        <v>1.4</v>
-      </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="13"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="34">
         <v>40626</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>20</v>
+      <c r="E66" s="42" t="s">
+        <v>52</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G66" s="51">
+        <v>23</v>
+      </c>
+      <c r="G66" s="50">
+        <v>1.3</v>
+      </c>
+      <c r="H66" s="56">
         <v>1.4</v>
       </c>
-      <c r="H66" s="57">
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="13"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="34">
+        <v>40626</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="50">
+        <v>1.4</v>
+      </c>
+      <c r="H67" s="56">
         <v>1.5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A67" s="14"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="58"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="59"/>
-    </row>
-    <row r="69" spans="1:8">
+    <row r="68" spans="1:8" ht="15" thickBot="1">
+      <c r="A68" s="14"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="57"/>
+    </row>
+    <row r="69" spans="1:8" ht="15" thickBot="1">
       <c r="A69" s="23"/>
       <c r="B69" s="23"/>
       <c r="C69" s="26"/>
       <c r="D69" s="36"/>
       <c r="E69" s="23"/>
       <c r="F69" s="26"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="59"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="58"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="59"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="59"/>
+      <c r="A70" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="33">
+        <v>40626</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" thickBot="1">
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="23"/>
@@ -2177,8 +2282,8 @@
       <c r="D72" s="36"/>
       <c r="E72" s="23"/>
       <c r="F72" s="26"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="59"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="58"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="23"/>
@@ -2187,8 +2292,8 @@
       <c r="D73" s="36"/>
       <c r="E73" s="23"/>
       <c r="F73" s="26"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="59"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="58"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="23"/>
@@ -2197,8 +2302,8 @@
       <c r="D74" s="36"/>
       <c r="E74" s="23"/>
       <c r="F74" s="26"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="59"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="58"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="23"/>
@@ -2207,8 +2312,8 @@
       <c r="D75" s="36"/>
       <c r="E75" s="23"/>
       <c r="F75" s="26"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="59"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="58"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="23"/>
@@ -2217,8 +2322,8 @@
       <c r="D76" s="36"/>
       <c r="E76" s="23"/>
       <c r="F76" s="26"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="59"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="58"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="23"/>
@@ -2227,8 +2332,8 @@
       <c r="D77" s="36"/>
       <c r="E77" s="23"/>
       <c r="F77" s="26"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="59"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="58"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="23"/>
@@ -2237,8 +2342,8 @@
       <c r="D78" s="36"/>
       <c r="E78" s="23"/>
       <c r="F78" s="26"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="59"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="58"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="23"/>
@@ -2247,8 +2352,8 @@
       <c r="D79" s="36"/>
       <c r="E79" s="23"/>
       <c r="F79" s="26"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="59"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="58"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="23"/>
@@ -2257,8 +2362,8 @@
       <c r="D80" s="36"/>
       <c r="E80" s="23"/>
       <c r="F80" s="26"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="59"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="58"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="23"/>
@@ -2267,8 +2372,8 @@
       <c r="D81" s="36"/>
       <c r="E81" s="23"/>
       <c r="F81" s="26"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="59"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="58"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="23"/>
@@ -2277,21 +2382,30 @@
       <c r="D82" s="36"/>
       <c r="E82" s="23"/>
       <c r="F82" s="26"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="59"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="58"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2301,12 +2415,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2318,12 +2432,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/2_Part2_Implementation/2.2_Control_Logs/2.2.4_VersionControl/DocVersionControl.xlsx
+++ b/2_Part2_Implementation/2.2_Control_Logs/2.2.4_VersionControl/DocVersionControl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="5100" windowWidth="27960" windowHeight="15400"/>
+    <workbookView xWindow="4260" yWindow="600" windowWidth="20860" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
+  <si>
+    <t>V16</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.3_ImplementationDocuments</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V19</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>James Nightingale</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>2.3.3_ImplementationDocuments</t>
+  </si>
+  <si>
+    <t>Added files to 2.3.3_ImplementationDocuments</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>2.3.1.1_Standards</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>staffs_ppsp_repo</t>
+  </si>
+  <si>
+    <t>Added directory 2.3.3_ImplementationDocuments</t>
+  </si>
+  <si>
+    <t>Added directory 2.2.5_CommLogs</t>
+  </si>
+  <si>
+    <t>Version ID</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>V9</t>
+  </si>
+  <si>
+    <t>V10</t>
+  </si>
+  <si>
+    <t>V11</t>
+  </si>
+  <si>
+    <t>Removed Directory 2.2.1_ChangeControl, Moved and renamed document ChangeControl.xlsx -&gt; DocVersionControl.xlsx to 2.2.4_Version Control. Renamed document VersionControl.xlsx -&gt; SWVersionControl.xls</t>
+  </si>
+  <si>
+    <t>David Russell</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updated main program - see commit details</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updated document - added new content</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V18</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.3_ImplementationDocuments</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>James Nightingale</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created document</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renamed doucment, added title</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V17</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I19</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.3_ImplementationDocuments</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created document</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Russell</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updated document - added a new test</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updated document - added a new test</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I21</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.3_ImplementationDocuments</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scott Dennison</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created document, copy of requirements with some annotations which we need to consider</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I22</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
   <si>
     <t>Removed Directory, moved file to 2.2.4_VersionControl, renamed file to DocVersionControl</t>
   </si>
@@ -68,150 +256,146 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>I17</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2_RequirementsTracing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Russell</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created document</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>James Nightingale</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added project folder to 2.1.1_Current</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ammended code to meet quality specifications</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Russell, James Nightingale</t>
+  </si>
+  <si>
+    <t>Updated main functions and menu driver</t>
+  </si>
+  <si>
+    <t>User to make changes</t>
+  </si>
+  <si>
+    <t>Added document to repository</t>
+  </si>
+  <si>
+    <t>Added further functionality</t>
+  </si>
+  <si>
     <t>V15</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I17</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.2_RequirementsTracing</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>I16</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scott Dennison</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>New document for software version logs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1_Current</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.2_Old</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1_Current</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moved folder to 2.1.2_Old</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Version</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created project folder for all code</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added Film class</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Russell, James Nightingale</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Russell, James Nightingale</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created main function with CLI menu driver</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Russell, James Nightingale</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added directory ppsp-project to 2.1.1_Current, moved redundant code to 2.1.2_Old</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>2.2.2_RepoIndexes</t>
+  </si>
+  <si>
+    <t>Description of Changes</t>
+  </si>
+  <si>
+    <t>Old Version</t>
+  </si>
+  <si>
+    <t>Date of Change</t>
+  </si>
+  <si>
+    <t>Index ID</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>Updated file: changed formatting and content</t>
   </si>
   <si>
     <t>David Russell</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Created document</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>James Nightingale</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Added project folder to 2.1.1_Current</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ammended code to meet quality specifications</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>David Russell, James Nightingale</t>
-  </si>
-  <si>
-    <t>Updated main functions and menu driver</t>
-  </si>
-  <si>
-    <t>User to make changes</t>
-  </si>
-  <si>
-    <t>Added document to repository</t>
-  </si>
-  <si>
-    <t>Added further functionality</t>
-  </si>
-  <si>
-    <t>V15</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I16</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scott Dennison</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>New document for software version logs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.1_Current</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.2_Old</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.1_Current</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moved folder to 2.1.2_Old</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current Version</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Created project folder for all code</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Added Film class</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>David Russell, James Nightingale</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>David Russell, James Nightingale</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Created main function with CLI menu driver</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>David Russell, James Nightingale</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Added directory ppsp-project to 2.1.1_Current, moved redundant code to 2.1.2_Old</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>2.2.2_RepoIndexes</t>
-  </si>
-  <si>
-    <t>Description of Changes</t>
-  </si>
-  <si>
-    <t>Old Version</t>
-  </si>
-  <si>
-    <t>Date of Change</t>
-  </si>
-  <si>
-    <t>Index ID</t>
-  </si>
-  <si>
-    <t>I1</t>
-  </si>
-  <si>
-    <t>Updated file: changed formatting and content</t>
-  </si>
-  <si>
-    <t>David Russell</t>
   </si>
   <si>
     <t>Added Dir: 1.1.1_Requirements. Added file: SoftwareRequirements and SoftwareRequirementsRevised. Removed: 1.1_SSS</t>
@@ -242,78 +426,6 @@
   </si>
   <si>
     <t>I8</t>
-  </si>
-  <si>
-    <t>I9</t>
-  </si>
-  <si>
-    <t>I10</t>
-  </si>
-  <si>
-    <t>2.3.3_ImplementationDocuments</t>
-  </si>
-  <si>
-    <t>Added files to 2.3.3_ImplementationDocuments</t>
-  </si>
-  <si>
-    <t>I11</t>
-  </si>
-  <si>
-    <t>2.3.1.1_Standards</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>staffs_ppsp_repo</t>
-  </si>
-  <si>
-    <t>Added directory 2.3.3_ImplementationDocuments</t>
-  </si>
-  <si>
-    <t>Added directory 2.2.5_CommLogs</t>
-  </si>
-  <si>
-    <t>Version ID</t>
-  </si>
-  <si>
-    <t>V0</t>
-  </si>
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>V4</t>
-  </si>
-  <si>
-    <t>V5</t>
-  </si>
-  <si>
-    <t>V6</t>
-  </si>
-  <si>
-    <t>V7</t>
-  </si>
-  <si>
-    <t>V8</t>
-  </si>
-  <si>
-    <t>V9</t>
-  </si>
-  <si>
-    <t>V10</t>
-  </si>
-  <si>
-    <t>V11</t>
-  </si>
-  <si>
-    <t>Removed Directory 2.2.1_ChangeControl, Moved and renamed document ChangeControl.xlsx -&gt; DocVersionControl.xlsx to 2.2.4_Version Control. Renamed document VersionControl.xlsx -&gt; SWVersionControl.xls</t>
   </si>
 </sst>
 </file>
@@ -411,7 +523,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -600,6 +712,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -608,7 +746,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -818,6 +956,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -834,6 +978,39 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1131,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:I83"/>
+  <dimension ref="A2:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1151,51 +1328,51 @@
   <sheetData>
     <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D3" s="33">
         <v>40620</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="H3" s="49">
         <v>1.01</v>
@@ -1209,10 +1386,10 @@
         <v>40622</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="G4" s="50">
         <v>1.1000000000000001</v>
@@ -1229,10 +1406,10 @@
         <v>40622</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="G5" s="50">
         <v>1.2</v>
@@ -1249,10 +1426,10 @@
         <v>40625</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="G6" s="50">
         <v>1.3</v>
@@ -1284,25 +1461,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D9" s="33">
         <v>40620</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="H9" s="55">
         <v>1.1000000000000001</v>
@@ -1316,10 +1493,10 @@
         <v>40620</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="G10" s="50">
         <v>1.1000000000000001</v>
@@ -1336,10 +1513,10 @@
         <v>40620</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="G11" s="50">
         <v>1.2</v>
@@ -1371,22 +1548,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="D14" s="75">
         <v>40622</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="G14" s="76">
         <v>1</v>
@@ -1397,23 +1574,23 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="72" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="64">
         <v>40625</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H15" s="67">
         <v>1</v>
@@ -1442,27 +1619,27 @@
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>3</v>
       </c>
       <c r="D18" s="33">
         <v>40622</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="81">
+        <v>104</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="83">
         <v>1</v>
       </c>
-      <c r="H18" s="83">
+      <c r="H18" s="85">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -1470,17 +1647,17 @@
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="68" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="D19" s="34">
         <v>40622</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="84"/>
+        <v>104</v>
+      </c>
+      <c r="F19" s="82"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1">
       <c r="A20" s="14"/>
@@ -1504,25 +1681,25 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="D22" s="33">
         <v>40620</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="H22" s="55">
         <v>1</v>
@@ -1550,25 +1727,25 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="D25" s="33">
         <v>40620</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="H25" s="55">
         <v>1</v>
@@ -1606,25 +1783,25 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="9" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D29" s="33">
         <v>40620</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="G29" s="60" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="H29" s="55">
         <v>1</v>
@@ -1662,25 +1839,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="9" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D33" s="33">
         <v>40620</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="G33" s="48" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="H33" s="55">
         <v>1</v>
@@ -1718,25 +1895,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="9" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D37" s="33">
         <v>40620</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="H37" s="55">
         <v>1</v>
@@ -1784,51 +1961,61 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="9" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D42" s="33">
         <v>40620</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="G42" s="48" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="H42" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="57"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="58"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1">
+    <row r="43" spans="1:8">
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="64">
+        <v>40630</v>
+      </c>
+      <c r="E43" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="66">
+        <v>1</v>
+      </c>
+      <c r="H43" s="67">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1">
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="57"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
@@ -1838,325 +2025,315 @@
       <c r="G45" s="54"/>
       <c r="H45" s="58"/>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:8" ht="15" thickBot="1">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="58"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="33">
+        <v>40620</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="61"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="67"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1">
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="57"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickBot="1">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="58"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="33">
+        <v>40622</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="48">
+        <v>1</v>
+      </c>
+      <c r="H51" s="55">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" thickBot="1">
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="57"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" thickBot="1">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="58"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="D54" s="33">
+        <v>40623</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="13"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="34">
+        <v>40625</v>
+      </c>
+      <c r="E55" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="F55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="33">
-        <v>40620</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="H46" s="55">
+      <c r="G55" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="61"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="67"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1">
-      <c r="A48" s="14"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="57"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="58"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="33">
-        <v>40622</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G50" s="48">
+      <c r="H55" s="56">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" thickBot="1">
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="57"/>
+    </row>
+    <row r="57" spans="1:8" ht="15" thickBot="1">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="27"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="33">
+        <v>40624</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="55">
         <v>1</v>
-      </c>
-      <c r="H50" s="55">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="57"/>
-    </row>
-    <row r="52" spans="1:8" ht="15" thickBot="1">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="58"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="33">
-        <v>40623</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="H53" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="13"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="34">
-        <v>40625</v>
-      </c>
-      <c r="E54" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="50">
-        <v>1</v>
-      </c>
-      <c r="H54" s="56">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1">
-      <c r="A55" s="14"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="57"/>
-    </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="27"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="33">
-        <v>40624</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="H57" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="13"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="34">
-        <v>40625</v>
-      </c>
-      <c r="E58" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="50">
-        <v>1</v>
-      </c>
-      <c r="H58" s="56">
-        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="69" t="s">
-        <v>33</v>
+      <c r="C59" s="41" t="s">
+        <v>84</v>
       </c>
       <c r="D59" s="34">
         <v>40625</v>
       </c>
       <c r="E59" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="50">
+        <v>1</v>
+      </c>
+      <c r="H59" s="56">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="13"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="34">
+        <v>40625</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" s="50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H60" s="56">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" thickBot="1">
+      <c r="A61" s="14"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="57"/>
+    </row>
+    <row r="62" spans="1:8" ht="15" thickBot="1">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="58"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="33">
+        <v>40625</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" s="50">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H59" s="56">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1">
-      <c r="A60" s="14"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="57"/>
-    </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="58"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="33">
-        <v>40625</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="H62" s="55">
+      <c r="H63" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="13"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="34">
-        <v>40625</v>
-      </c>
-      <c r="E63" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G63" s="50">
-        <v>1</v>
-      </c>
-      <c r="H63" s="56">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="45"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="34">
         <v>40625</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="G64" s="50">
+        <v>1</v>
+      </c>
+      <c r="H64" s="56">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="H64" s="56">
-        <v>1.2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2167,16 +2344,16 @@
         <v>40625</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="G65" s="50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H65" s="56">
         <v>1.2</v>
-      </c>
-      <c r="H65" s="56">
-        <v>1.3</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2184,216 +2361,420 @@
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="34">
-        <v>40626</v>
+        <v>40625</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="G66" s="50">
+        <v>1.2</v>
+      </c>
+      <c r="H66" s="56">
         <v>1.3</v>
       </c>
-      <c r="H66" s="56">
-        <v>1.4</v>
-      </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="13"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="34">
         <v>40626</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>52</v>
+      <c r="E67" s="42" t="s">
+        <v>104</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="G67" s="50">
+        <v>1.3</v>
+      </c>
+      <c r="H67" s="56">
         <v>1.4</v>
       </c>
-      <c r="H67" s="56">
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="13"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="34">
+        <v>40626</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G68" s="50">
+        <v>1.4</v>
+      </c>
+      <c r="H68" s="56">
         <v>1.5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" thickBot="1">
-      <c r="A68" s="14"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="57"/>
-    </row>
-    <row r="69" spans="1:8" ht="15" thickBot="1">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="58"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="33">
+    <row r="69" spans="1:8">
+      <c r="A69" s="87"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="90">
+        <v>40629</v>
+      </c>
+      <c r="E69" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" s="92">
+        <v>1.5</v>
+      </c>
+      <c r="H69" s="93">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" thickBot="1">
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="57"/>
+    </row>
+    <row r="71" spans="1:8" ht="15" thickBot="1">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="58"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="33">
         <v>40626</v>
       </c>
-      <c r="E70" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="70">
+      <c r="E72" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G72" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" s="70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" thickBot="1">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="57"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="58"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="58"/>
-    </row>
-    <row r="74" spans="1:8">
+    <row r="73" spans="1:8" ht="15" thickBot="1">
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="57"/>
+    </row>
+    <row r="74" spans="1:8" ht="15" thickBot="1">
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
       <c r="C74" s="26"/>
       <c r="D74" s="36"/>
-      <c r="E74" s="23"/>
+      <c r="E74" s="30"/>
       <c r="F74" s="26"/>
       <c r="G74" s="54"/>
       <c r="H74" s="58"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="58"/>
+      <c r="A75" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="33">
+        <v>40626</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H75" s="79">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="58"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="58"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="34">
+        <v>40627</v>
+      </c>
+      <c r="E76" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76" s="95">
+        <v>1</v>
+      </c>
+      <c r="H76" s="80">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" thickBot="1">
+      <c r="A77" s="96"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="35">
+        <v>40629</v>
+      </c>
+      <c r="E77" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G77" s="52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H77" s="57">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" thickBot="1">
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="26"/>
       <c r="D78" s="36"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="26"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="27"/>
       <c r="G78" s="54"/>
       <c r="H78" s="58"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="58"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="58"/>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="A79" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="33">
+        <v>40626</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" thickBot="1">
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="35">
+        <v>40630</v>
+      </c>
+      <c r="E80" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" s="52">
+        <v>1</v>
+      </c>
+      <c r="H80" s="57">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" thickBot="1">
       <c r="A81" s="23"/>
       <c r="B81" s="23"/>
       <c r="C81" s="26"/>
       <c r="D81" s="36"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="26"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="27"/>
       <c r="G81" s="54"/>
       <c r="H81" s="58"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="58"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="58"/>
+      <c r="A82" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="33">
+        <v>40626</v>
+      </c>
+      <c r="E82" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" thickBot="1">
+      <c r="A83" s="96"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="97"/>
+      <c r="H83" s="57"/>
+    </row>
+    <row r="84" spans="1:8" ht="15" thickBot="1">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="58"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="33">
+        <v>40626</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G85" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="H85" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" thickBot="1">
+      <c r="A86" s="14"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="57"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="58"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="58"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="58"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="58"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="58"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/2_Part2_Implementation/2.2_Control_Logs/2.2.4_VersionControl/DocVersionControl.xlsx
+++ b/2_Part2_Implementation/2.2_Control_Logs/2.2.4_VersionControl/DocVersionControl.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="600" windowWidth="20860" windowHeight="14580"/>
+    <workbookView xWindow="4260" yWindow="600" windowWidth="20865" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="122">
   <si>
     <t>V16</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -426,6 +426,27 @@
   </si>
   <si>
     <t>I8</t>
+  </si>
+  <si>
+    <t>V21</t>
+  </si>
+  <si>
+    <t>I23</t>
+  </si>
+  <si>
+    <t>James Nightingale</t>
+  </si>
+  <si>
+    <t>Created document</t>
+  </si>
+  <si>
+    <t>V22</t>
+  </si>
+  <si>
+    <t>I24</t>
+  </si>
+  <si>
+    <t>Updated document: revised location of code as code has changed significantly. More methods have been  implemented and these have been traced to the requirement.</t>
   </si>
 </sst>
 </file>
@@ -746,7 +767,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,6 +983,42 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -980,38 +1037,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1307,26 +1334,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:I92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="59" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" thickBot="1">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1425,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="42">
+    <row r="5" spans="1:9" ht="45">
       <c r="A5" s="13"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
@@ -1418,7 +1445,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="30">
       <c r="A6" s="13"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
@@ -1438,7 +1465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -1448,7 +1475,7 @@
       <c r="G7" s="52"/>
       <c r="H7" s="53"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="27"/>
@@ -1485,7 +1512,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28">
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -1525,7 +1552,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="20"/>
@@ -1535,7 +1562,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="26"/>
@@ -1596,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="15"/>
@@ -1606,7 +1633,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="57"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
@@ -1633,13 +1660,13 @@
       <c r="E18" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="81" t="s">
+      <c r="F18" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="83">
+      <c r="G18" s="95">
         <v>1</v>
       </c>
-      <c r="H18" s="85">
+      <c r="H18" s="97">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -1655,11 +1682,11 @@
       <c r="E19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="86"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1">
+      <c r="F19" s="94"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="98"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" s="14"/>
       <c r="B20" s="17"/>
       <c r="C20" s="22"/>
@@ -1669,7 +1696,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="57"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="28"/>
@@ -1705,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="A23" s="14"/>
       <c r="B23" s="17"/>
       <c r="C23" s="15"/>
@@ -1715,7 +1742,7 @@
       <c r="G23" s="52"/>
       <c r="H23" s="57"/>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
@@ -1751,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1">
       <c r="A26" s="14"/>
       <c r="B26" s="17"/>
       <c r="C26" s="15"/>
@@ -1771,7 +1798,7 @@
       <c r="G27" s="54"/>
       <c r="H27" s="58"/>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
@@ -1807,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
       <c r="A30" s="14"/>
       <c r="B30" s="17"/>
       <c r="C30" s="15"/>
@@ -1827,7 +1854,7 @@
       <c r="G31" s="54"/>
       <c r="H31" s="58"/>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="24"/>
@@ -1873,7 +1900,7 @@
       <c r="G34" s="66"/>
       <c r="H34" s="67"/>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1">
       <c r="A35" s="14"/>
       <c r="B35" s="17"/>
       <c r="C35" s="15"/>
@@ -1883,7 +1910,7 @@
       <c r="G35" s="52"/>
       <c r="H35" s="57"/>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="24"/>
@@ -1929,7 +1956,7 @@
       <c r="G38" s="66"/>
       <c r="H38" s="67"/>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="14"/>
       <c r="B39" s="17"/>
       <c r="C39" s="15"/>
@@ -1949,7 +1976,7 @@
       <c r="G40" s="54"/>
       <c r="H40" s="58"/>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="24"/>
@@ -2005,7 +2032,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="14"/>
       <c r="B44" s="17"/>
       <c r="C44" s="15"/>
@@ -2025,7 +2052,7 @@
       <c r="G45" s="54"/>
       <c r="H45" s="58"/>
     </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
       <c r="C46" s="24"/>
@@ -2071,7 +2098,7 @@
       <c r="G48" s="66"/>
       <c r="H48" s="67"/>
     </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="14"/>
       <c r="B49" s="17"/>
       <c r="C49" s="15"/>
@@ -2081,7 +2108,7 @@
       <c r="G49" s="52"/>
       <c r="H49" s="57"/>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="23"/>
       <c r="B50" s="23"/>
       <c r="C50" s="24"/>
@@ -2117,7 +2144,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="14"/>
       <c r="B52" s="17"/>
       <c r="C52" s="16"/>
@@ -2127,7 +2154,7 @@
       <c r="G52" s="52"/>
       <c r="H52" s="57"/>
     </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="23"/>
       <c r="B53" s="23"/>
       <c r="C53" s="26"/>
@@ -2185,7 +2212,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="14"/>
       <c r="B56" s="17"/>
       <c r="C56" s="16"/>
@@ -2195,7 +2222,7 @@
       <c r="G56" s="52"/>
       <c r="H56" s="57"/>
     </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="27"/>
@@ -2270,7 +2297,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="14"/>
       <c r="B61" s="17"/>
       <c r="C61" s="43"/>
@@ -2280,7 +2307,7 @@
       <c r="G61" s="52"/>
       <c r="H61" s="57"/>
     </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
       <c r="C62" s="31"/>
@@ -2417,26 +2444,26 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="87"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="90">
+      <c r="A69" s="82"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="85">
         <v>40629</v>
       </c>
-      <c r="E69" s="94" t="s">
+      <c r="E69" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="F69" s="91" t="s">
+      <c r="F69" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="G69" s="92">
+      <c r="G69" s="87">
         <v>1.5</v>
       </c>
-      <c r="H69" s="93">
+      <c r="H69" s="88">
         <v>1.6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1">
       <c r="A70" s="14"/>
       <c r="B70" s="17"/>
       <c r="C70" s="20"/>
@@ -2446,7 +2473,7 @@
       <c r="G70" s="52"/>
       <c r="H70" s="57"/>
     </row>
-    <row r="71" spans="1:8" ht="15" thickBot="1">
+    <row r="71" spans="1:8" ht="15.75" thickBot="1">
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
       <c r="C71" s="26"/>
@@ -2482,251 +2509,261 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" thickBot="1">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="57"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" thickBot="1">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="58"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="38" t="s">
+    <row r="73" spans="1:8" ht="45">
+      <c r="A73" s="72"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="64">
+        <v>40630</v>
+      </c>
+      <c r="E73" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="G73" s="78">
+        <v>1</v>
+      </c>
+      <c r="H73" s="67">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A74" s="14"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="57"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="58"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="39" t="s">
+      <c r="B76" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="33">
+      <c r="D76" s="33">
         <v>40626</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E76" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F76" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G75" s="60" t="s">
+      <c r="G76" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="H75" s="79">
+      <c r="H76" s="79">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="45"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="34">
+    <row r="77" spans="1:8">
+      <c r="A77" s="45"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="34">
         <v>40627</v>
       </c>
-      <c r="E76" s="42" t="s">
+      <c r="E77" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G76" s="95">
+      <c r="G77" s="90">
         <v>1</v>
       </c>
-      <c r="H76" s="80">
+      <c r="H77" s="80">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" thickBot="1">
-      <c r="A77" s="96"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="35">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A78" s="91"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="35">
         <v>40629</v>
       </c>
-      <c r="E77" s="44" t="s">
+      <c r="E78" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F78" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G77" s="52">
+      <c r="G78" s="52">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H77" s="57">
+      <c r="H78" s="57">
         <v>1.2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" thickBot="1">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="58"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="38" t="s">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="58"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="39" t="s">
+      <c r="B80" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D79" s="33">
+      <c r="D80" s="33">
         <v>40626</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E80" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F80" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G79" s="60" t="s">
+      <c r="G80" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H79" s="79">
+      <c r="H80" s="79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" thickBot="1">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="35">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A81" s="14"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="35">
         <v>40630</v>
       </c>
-      <c r="E80" s="44" t="s">
+      <c r="E81" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="F80" s="16" t="s">
+      <c r="F81" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G80" s="52">
+      <c r="G81" s="52">
         <v>1</v>
       </c>
-      <c r="H80" s="57">
+      <c r="H81" s="57">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" thickBot="1">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="58"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="38" t="s">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="58"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B83" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D82" s="33">
+      <c r="D83" s="33">
         <v>40626</v>
       </c>
-      <c r="E82" s="39" t="s">
+      <c r="E83" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F83" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G82" s="60" t="s">
+      <c r="G83" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H82" s="79">
+      <c r="H83" s="79">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1">
-      <c r="A83" s="96"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="97"/>
-      <c r="H83" s="57"/>
-    </row>
-    <row r="84" spans="1:8" ht="15" thickBot="1">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="58"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="38" t="s">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A84" s="91"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="92"/>
+      <c r="H84" s="57"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="58"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B86" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D85" s="33">
+      <c r="D86" s="33">
         <v>40626</v>
       </c>
-      <c r="E85" s="39" t="s">
+      <c r="E86" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F85" s="11" t="s">
+      <c r="F86" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G85" s="60" t="s">
+      <c r="G86" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H85" s="79">
+      <c r="H86" s="79">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" thickBot="1">
-      <c r="A86" s="14"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="57"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="23"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="58"/>
-    </row>
-    <row r="88" spans="1:8">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A87" s="14"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="57"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
       <c r="A88" s="23"/>
       <c r="B88" s="23"/>
       <c r="C88" s="26"/>
@@ -2737,26 +2774,42 @@
       <c r="H88" s="58"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="23"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="54"/>
-      <c r="H89" s="58"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="58"/>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="A89" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="33">
+        <v>40630</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A90" s="14"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="57"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="26"/>
@@ -2767,14 +2820,40 @@
       <c r="H91" s="58"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="23"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="54"/>
-      <c r="H92" s="58"/>
+      <c r="A92" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="33">
+        <v>40630</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G92" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A93" s="14"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2796,12 +2875,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2813,12 +2892,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/2_Part2_Implementation/2.2_Control_Logs/2.2.4_VersionControl/DocVersionControl.xlsx
+++ b/2_Part2_Implementation/2.2_Control_Logs/2.2.4_VersionControl/DocVersionControl.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="151">
   <si>
     <t>V16</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -474,6 +474,63 @@
   </si>
   <si>
     <t>Added basis path tests to document</t>
+  </si>
+  <si>
+    <t>James Nightingale, David Russell, Amanda Patterson</t>
+  </si>
+  <si>
+    <t>Added user manual, quality assurance, testing documents</t>
+  </si>
+  <si>
+    <t>I26</t>
+  </si>
+  <si>
+    <t>I28</t>
+  </si>
+  <si>
+    <t>I29</t>
+  </si>
+  <si>
+    <t>I30</t>
+  </si>
+  <si>
+    <t>I31</t>
+  </si>
+  <si>
+    <t>I32</t>
+  </si>
+  <si>
+    <t>V24</t>
+  </si>
+  <si>
+    <t>V25</t>
+  </si>
+  <si>
+    <t>V26</t>
+  </si>
+  <si>
+    <t>V27</t>
+  </si>
+  <si>
+    <t>V28</t>
+  </si>
+  <si>
+    <t>V29</t>
+  </si>
+  <si>
+    <t>James Nightingale, Amanda Patterson</t>
+  </si>
+  <si>
+    <t>Amanda Patterson, James Nightingale</t>
+  </si>
+  <si>
+    <t>Created the document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created the project - significant changes since last update </t>
+  </si>
+  <si>
+    <t>Amanda Patterson</t>
   </si>
 </sst>
 </file>
@@ -794,7 +851,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1026,22 +1083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1093,6 +1135,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1390,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I123"/>
+  <dimension ref="A2:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:XFD124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1401,11 +1461,11 @@
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="101" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="96" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="126.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="105" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="105" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="100" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="100" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
@@ -1418,7 +1478,7 @@
       <c r="C2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="95" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1427,10 +1487,10 @@
       <c r="F2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="G2" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="104" t="s">
+      <c r="H2" s="99" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1522,7 +1582,7 @@
     </row>
     <row r="7" spans="1:9" ht="77.25" customHeight="1">
       <c r="A7" s="69"/>
-      <c r="B7" s="94"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="73"/>
       <c r="D7" s="72">
         <v>40631</v>
@@ -1530,35 +1590,35 @@
       <c r="E7" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="92" t="s">
         <v>121</v>
       </c>
       <c r="G7" s="74">
         <v>1.4</v>
       </c>
-      <c r="H7" s="96">
+      <c r="H7" s="91">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="69"/>
-      <c r="B8" s="94"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="73"/>
       <c r="D8" s="72"/>
       <c r="E8" s="76"/>
-      <c r="F8" s="95"/>
+      <c r="F8" s="90"/>
       <c r="G8" s="74"/>
-      <c r="H8" s="96"/>
+      <c r="H8" s="91"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="69"/>
-      <c r="B9" s="94"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="73"/>
       <c r="D9" s="72"/>
       <c r="E9" s="76"/>
-      <c r="F9" s="95"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="74"/>
-      <c r="H9" s="96"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1">
       <c r="A10" s="14"/>
@@ -1975,13 +2035,13 @@
       <c r="E32" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="85" t="s">
+      <c r="F32" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="87">
+      <c r="G32" s="109">
         <v>1</v>
       </c>
-      <c r="H32" s="89">
+      <c r="H32" s="111">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -1997,9 +2057,9 @@
       <c r="E33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="86"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="90"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="112"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="14"/>
@@ -2193,7 +2253,7 @@
         <v>40620</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>74</v>
@@ -2440,7 +2500,7 @@
       <c r="B65" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="91" t="s">
+      <c r="C65" s="86" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="32">
@@ -2893,7 +2953,7 @@
       <c r="B91" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="91" t="s">
+      <c r="C91" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="32">
@@ -2975,10 +3035,10 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A95" s="99"/>
+      <c r="A95" s="94"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
-      <c r="D95" s="102"/>
+      <c r="D95" s="97"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
       <c r="G95" s="79"/>
@@ -3001,7 +3061,7 @@
       <c r="B97" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="91" t="s">
+      <c r="C97" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="32">
@@ -3260,14 +3320,14 @@
       <c r="G114" s="48"/>
       <c r="H114" s="50"/>
     </row>
-    <row r="115" spans="1:8" s="93" customFormat="1">
+    <row r="115" spans="1:8" s="88" customFormat="1">
       <c r="A115" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B115" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C115" s="91" t="s">
+      <c r="C115" s="86" t="s">
         <v>10</v>
       </c>
       <c r="D115" s="32">
@@ -3276,7 +3336,7 @@
       <c r="E115" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F115" s="92" t="s">
+      <c r="F115" s="87" t="s">
         <v>115</v>
       </c>
       <c r="G115" s="80" t="s">
@@ -3320,7 +3380,7 @@
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="120" spans="1:8">
-      <c r="A120" s="107" t="s">
+      <c r="A120" s="102" t="s">
         <v>126</v>
       </c>
       <c r="B120" s="10" t="s">
@@ -3329,7 +3389,7 @@
       <c r="C120" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D120" s="108">
+      <c r="D120" s="103">
         <v>40629</v>
       </c>
       <c r="E120" s="10" t="s">
@@ -3346,10 +3406,10 @@
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="109"/>
+      <c r="A121" s="104"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="106">
+      <c r="D121" s="101">
         <v>40630</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -3366,34 +3426,264 @@
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="110"/>
-      <c r="B122" s="94"/>
-      <c r="C122" s="94"/>
-      <c r="D122" s="111">
+      <c r="A122" s="105"/>
+      <c r="B122" s="89"/>
+      <c r="C122" s="89"/>
+      <c r="D122" s="106">
         <v>40631</v>
       </c>
-      <c r="E122" s="94" t="s">
+      <c r="E122" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="F122" s="94" t="s">
+      <c r="F122" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="G122" s="98">
+      <c r="G122" s="93">
         <v>1.1000000000000001</v>
       </c>
       <c r="H122" s="75">
         <v>1.2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A123" s="99"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="102"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="49"/>
+    <row r="123" spans="1:8">
+      <c r="A123" s="105"/>
+      <c r="B123" s="89"/>
+      <c r="C123" s="89"/>
+      <c r="D123" s="106">
+        <v>40632</v>
+      </c>
+      <c r="E123" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="F123" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="G123" s="93">
+        <v>1.2</v>
+      </c>
+      <c r="H123" s="75">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A124" s="94"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="97"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="79"/>
+      <c r="H124" s="49"/>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="126" spans="1:8">
+      <c r="A126" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126" s="10"/>
+      <c r="D126" s="103">
+        <v>40632</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G126" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A127" s="94"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="97"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="79"/>
+      <c r="H127" s="49"/>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="129" spans="1:8">
+      <c r="A129" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="103">
+        <v>40632</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G129" s="51">
+        <v>1.6</v>
+      </c>
+      <c r="H129" s="85">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A130" s="94"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="97"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="79"/>
+      <c r="H130" s="49"/>
+    </row>
+    <row r="131" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="132" spans="1:8">
+      <c r="A132" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132" s="10"/>
+      <c r="D132" s="103">
+        <v>40632</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G132" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A133" s="94"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="97"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="79"/>
+      <c r="H133" s="49"/>
+    </row>
+    <row r="134" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="135" spans="1:8">
+      <c r="A135" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="103">
+        <v>40632</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G135" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A136" s="94"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="97"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="79"/>
+      <c r="H136" s="49"/>
+    </row>
+    <row r="137" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="138" spans="1:8">
+      <c r="A138" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="103">
+        <v>40632</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G138" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A139" s="94"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="97"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="79"/>
+      <c r="H139" s="49"/>
+    </row>
+    <row r="140" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="141" spans="1:8">
+      <c r="A141" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="103">
+        <v>40632</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G141" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A142" s="94"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="97"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="79"/>
+      <c r="H142" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
